--- a/biology/Zoologie/Carangoides_bajad/Carangoides_bajad.xlsx
+++ b/biology/Zoologie/Carangoides_bajad/Carangoides_bajad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carangue à points orange
-Carangoides bajad, communément appelé Carangue à points orange, est une espèce de poisson marin démersale de la famille des Carangidae qui se rencontre dans les eaux tropicales de l'Indo/ouest Pacifique, Mer Rouge incluse[2]. Il vit dans les récifs coralliens entre 3 et 50 mètres de profondeur. 
+Carangoides bajad, communément appelé Carangue à points orange, est une espèce de poisson marin démersale de la famille des Carangidae qui se rencontre dans les eaux tropicales de l'Indo/ouest Pacifique, Mer Rouge incluse. Il vit dans les récifs coralliens entre 3 et 50 mètres de profondeur. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, bajad, est la reprise de son nom vernaculaire arabe[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, bajad, est la reprise de son nom vernaculaire arabe. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sa taille maximale est de 55 cm mais la taille moyenne couramment observée est de 42 cm[4]. Il est reconnaissable à sa belle livrée plus ou moins tachetée d'or[5].
+Sa taille maximale est de 55 cm mais la taille moyenne couramment observée est de 42 cm. Il est reconnaissable à sa belle livrée plus ou moins tachetée d'or.
 	Garangue à points orange
 			Belle livrée presque entièrement dorée, Mer Rouge, Sharm-el-Sheik, Égypte
 			Livrée fortement tachetée d'or, Mer Rouge, Marsa Alam, Égypte
